--- a/Documentation/Project Schedule.xlsx
+++ b/Documentation/Project Schedule.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2fb0\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010371\Documents\GitHub\axi2spi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="310" documentId="11_38FB436450C37C7C6BBECF7399B2BCBA2C73F5DA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{946A3306-F484-4B8B-9242-C47B6341C11F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F962177-A715-4CEE-B8A7-5801A1478D09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>Project Stage</t>
   </si>
@@ -234,13 +232,19 @@
   </si>
   <si>
     <t>FPGA testing</t>
+  </si>
+  <si>
+    <t>53a771e</t>
+  </si>
+  <si>
+    <t>c6fbe4a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,8 +259,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,8 +334,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -616,11 +639,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -731,6 +791,18 @@
     <xf numFmtId="16" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1047,25 +1119,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.44140625" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
@@ -1121,7 +1193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="48"/>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -1145,7 +1217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -1167,7 +1239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="49"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
@@ -1189,7 +1261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>26</v>
       </c>
@@ -1217,7 +1289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="48"/>
       <c r="B7" s="2" t="s">
         <v>31</v>
@@ -1239,7 +1311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="48"/>
       <c r="B8" s="2" t="s">
         <v>34</v>
@@ -1255,7 +1327,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="48"/>
       <c r="B9" s="2" t="s">
         <v>36</v>
@@ -1269,9 +1341,9 @@
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="46"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>37</v>
       </c>
@@ -1289,11 +1361,11 @@
         <v>43966</v>
       </c>
       <c r="G10" s="30"/>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="48"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
@@ -1307,11 +1379,11 @@
       </c>
       <c r="F11" s="59"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="64" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="48"/>
       <c r="B12" s="2" t="s">
         <v>42</v>
@@ -1320,12 +1392,16 @@
         <v>28</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="18"/>
+      <c r="E12" s="67">
+        <v>43969</v>
+      </c>
       <c r="F12" s="59"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="H12" s="66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
       <c r="B13" s="2" t="s">
         <v>43</v>
@@ -1339,12 +1415,12 @@
       </c>
       <c r="F13" s="59"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="64" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="48"/>
       <c r="B14" s="2" t="s">
         <v>45</v>
@@ -1360,11 +1436,11 @@
       <c r="G14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="64" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="48"/>
       <c r="B15" s="2" t="s">
         <v>48</v>
@@ -1378,11 +1454,11 @@
       </c>
       <c r="F15" s="59"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="65" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>51</v>
       </c>
@@ -1398,9 +1474,9 @@
         <v>43972</v>
       </c>
       <c r="G16" s="30"/>
-      <c r="H16" s="40"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" s="63"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="48"/>
       <c r="B17" s="2" t="s">
         <v>53</v>
@@ -1412,9 +1488,9 @@
       <c r="E17" s="18"/>
       <c r="F17" s="51"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="41"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17" s="64"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="48"/>
       <c r="B18" s="2" t="s">
         <v>54</v>
@@ -1426,9 +1502,9 @@
       <c r="E18" s="18"/>
       <c r="F18" s="51"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="41"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" s="64"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="48"/>
       <c r="B19" s="2" t="s">
         <v>55</v>
@@ -1442,11 +1518,11 @@
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="64" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="48"/>
       <c r="B20" s="2" t="s">
         <v>57</v>
@@ -1455,12 +1531,16 @@
         <v>28</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="18"/>
+      <c r="E20" s="62">
+        <v>43972</v>
+      </c>
       <c r="F20" s="52"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="41"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="48"/>
       <c r="B21" s="2" t="s">
         <v>58</v>
@@ -1472,9 +1552,9 @@
       <c r="E21" s="18"/>
       <c r="F21" s="52"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="41"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
+      <c r="H21" s="64"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="48"/>
       <c r="B22" s="2" t="s">
         <v>59</v>
@@ -1486,9 +1566,9 @@
       <c r="E22" s="18"/>
       <c r="F22" s="53"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="42"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
+      <c r="H22" s="65"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>60</v>
       </c>
@@ -1506,7 +1586,7 @@
       <c r="G23" s="30"/>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
         <v>63</v>
       </c>
@@ -1522,7 +1602,7 @@
       <c r="G24" s="30"/>
       <c r="H24" s="40"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="48"/>
       <c r="B25" s="2" t="s">
         <v>65</v>
@@ -1534,7 +1614,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="48"/>
       <c r="B26" s="2" t="s">
         <v>66</v>
@@ -1546,7 +1626,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="41"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="49"/>
       <c r="B27" s="4" t="s">
         <v>67</v>
@@ -1574,13 +1654,17 @@
     <mergeCell ref="F24:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1730,22 +1814,42 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC183E54-2C7F-447F-9F20-20916199F4FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{837235E1-7EB7-428A-9D4E-2E36B6940D1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8061BCE-C0B7-43F5-B2AE-C82709D07905}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8061BCE-C0B7-43F5-B2AE-C82709D07905}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0fe6e073-fbcf-4c9f-9467-c4294a786ad2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{837235E1-7EB7-428A-9D4E-2E36B6940D1C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC183E54-2C7F-447F-9F20-20916199F4FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentation/Project Schedule.xlsx
+++ b/Documentation/Project Schedule.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2fb0\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010377\Documents\GitHub\axi2spi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="310" documentId="11_38FB436450C37C7C6BBECF7399B2BCBA2C73F5DA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{946A3306-F484-4B8B-9242-C47B6341C11F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843AAE9E-9952-4B53-BEDD-36A5343CE7F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -240,7 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +321,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -620,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -661,9 +671,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -695,18 +702,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -725,12 +720,28 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1047,11 +1058,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
@@ -1065,7 +1076,7 @@
     <col min="10" max="10" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1091,8 +1102,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1107,11 +1118,11 @@
       <c r="E2" s="15">
         <v>43963</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="49">
         <v>43963</v>
       </c>
       <c r="G2" s="30"/>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="43" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="32" t="s">
@@ -1121,8 +1132,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="48"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1135,9 +1146,9 @@
       <c r="E3" s="12">
         <v>43961</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="45"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="33" t="s">
         <v>17</v>
       </c>
@@ -1145,8 +1156,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="48"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1157,9 +1168,9 @@
       <c r="E4" s="13">
         <v>43963</v>
       </c>
-      <c r="F4" s="55"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="45"/>
+      <c r="H4" s="44"/>
       <c r="I4" s="34" t="s">
         <v>21</v>
       </c>
@@ -1167,8 +1178,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="49"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1179,9 +1190,9 @@
       <c r="E5" s="14">
         <v>43961</v>
       </c>
-      <c r="F5" s="56"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="31"/>
-      <c r="H5" s="46"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="35" t="s">
         <v>24</v>
       </c>
@@ -1189,8 +1200,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1203,11 +1214,11 @@
       <c r="E6" s="13">
         <v>43963</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="52">
         <v>43963</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="43" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="36" t="s">
@@ -1217,8 +1228,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="48"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1229,9 +1240,9 @@
       <c r="E7" s="13">
         <v>43963</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="45"/>
+      <c r="H7" s="44"/>
       <c r="I7" s="37" t="s">
         <v>32</v>
       </c>
@@ -1239,8 +1250,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="48"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
@@ -1251,12 +1262,12 @@
       <c r="E8" s="13">
         <v>43963</v>
       </c>
-      <c r="F8" s="55"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="45"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="48"/>
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1267,12 +1278,12 @@
       <c r="E9" s="13">
         <v>43963</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="46"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="47" t="s">
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1285,16 +1296,16 @@
       <c r="E10" s="20">
         <v>43965</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="53">
         <v>43966</v>
       </c>
       <c r="G10" s="30"/>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="48"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -1305,14 +1316,14 @@
       <c r="E11" s="21">
         <v>43965</v>
       </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="48"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1321,12 +1332,12 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="59"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="48"/>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
       <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
@@ -1337,15 +1348,15 @@
       <c r="E13" s="22">
         <v>43966</v>
       </c>
-      <c r="F13" s="59"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="40" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="48"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
       <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
@@ -1353,19 +1364,19 @@
         <v>20</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="39">
+      <c r="E14" s="38">
         <v>43969</v>
       </c>
-      <c r="F14" s="59"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="48"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
       <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
@@ -1376,14 +1387,14 @@
       <c r="E15" s="22">
         <v>43966</v>
       </c>
-      <c r="F15" s="59"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="47" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1394,14 +1405,14 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="50">
-        <v>43972</v>
+      <c r="F16" s="55">
+        <v>43978</v>
       </c>
       <c r="G16" s="30"/>
-      <c r="H16" s="40"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="48"/>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
       <c r="B17" s="2" t="s">
         <v>53</v>
       </c>
@@ -1410,12 +1421,12 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="51"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="41"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="48"/>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
       <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
@@ -1423,13 +1434,15 @@
         <v>10</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="51"/>
+      <c r="E18" s="21">
+        <v>43977</v>
+      </c>
+      <c r="F18" s="56"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="41"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="48"/>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
       <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
@@ -1440,14 +1453,14 @@
       <c r="E19" s="21">
         <v>43969</v>
       </c>
-      <c r="F19" s="51"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="40" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="48"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
       <c r="B20" s="2" t="s">
         <v>57</v>
       </c>
@@ -1456,12 +1469,12 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="52"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="41"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="48"/>
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
       <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
@@ -1470,12 +1483,12 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="52"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="41"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
-      <c r="A22" s="48"/>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
       <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
@@ -1483,13 +1496,15 @@
         <v>10</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="53"/>
+      <c r="E22" s="62">
+        <v>43977</v>
+      </c>
+      <c r="F22" s="58"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="42"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
-      <c r="A23" s="43" t="s">
+      <c r="H22" s="41"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -1500,14 +1515,14 @@
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="38">
-        <v>43973</v>
+      <c r="F23" s="59">
+        <v>43978</v>
       </c>
       <c r="G23" s="30"/>
-      <c r="H23" s="41"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="47" t="s">
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -1520,10 +1535,10 @@
         <v>43978</v>
       </c>
       <c r="G24" s="30"/>
-      <c r="H24" s="40"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="48"/>
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
       <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
@@ -1532,10 +1547,10 @@
       <c r="E25" s="18"/>
       <c r="F25" s="60"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="41"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="48"/>
+      <c r="H25" s="40"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="47"/>
       <c r="B26" s="2" t="s">
         <v>66</v>
       </c>
@@ -1544,10 +1559,10 @@
       <c r="E26" s="18"/>
       <c r="F26" s="60"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="41"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="49"/>
+      <c r="H26" s="40"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
       <c r="B27" s="4" t="s">
         <v>67</v>
       </c>
@@ -1556,7 +1571,7 @@
       <c r="E27" s="19"/>
       <c r="F27" s="61"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="42"/>
+      <c r="H27" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1578,9 +1593,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1730,22 +1748,42 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC183E54-2C7F-447F-9F20-20916199F4FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{837235E1-7EB7-428A-9D4E-2E36B6940D1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8061BCE-C0B7-43F5-B2AE-C82709D07905}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8061BCE-C0B7-43F5-B2AE-C82709D07905}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0fe6e073-fbcf-4c9f-9467-c4294a786ad2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{837235E1-7EB7-428A-9D4E-2E36B6940D1C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC183E54-2C7F-447F-9F20-20916199F4FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentation/Project Schedule.xlsx
+++ b/Documentation/Project Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010377\Documents\GitHub\axi2spi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843AAE9E-9952-4B53-BEDD-36A5343CE7F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95715DF-962B-4759-B9B3-C156AB3697BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>Project Stage</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>FPGA testing</t>
+  </si>
+  <si>
+    <t>d1b4657</t>
   </si>
 </sst>
 </file>
@@ -684,6 +687,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -702,6 +709,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -720,28 +739,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1106,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1118,11 +1121,11 @@
       <c r="E2" s="15">
         <v>43963</v>
       </c>
-      <c r="F2" s="49">
+      <c r="F2" s="55">
         <v>43963</v>
       </c>
       <c r="G2" s="30"/>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="45" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="32" t="s">
@@ -1133,7 +1136,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1146,9 +1149,9 @@
       <c r="E3" s="12">
         <v>43961</v>
       </c>
-      <c r="F3" s="50"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="44"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="33" t="s">
         <v>17</v>
       </c>
@@ -1157,7 +1160,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1168,9 +1171,9 @@
       <c r="E4" s="13">
         <v>43963</v>
       </c>
-      <c r="F4" s="50"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="44"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="34" t="s">
         <v>21</v>
       </c>
@@ -1179,7 +1182,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1190,9 +1193,9 @@
       <c r="E5" s="14">
         <v>43961</v>
       </c>
-      <c r="F5" s="51"/>
+      <c r="F5" s="57"/>
       <c r="G5" s="31"/>
-      <c r="H5" s="45"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="35" t="s">
         <v>24</v>
       </c>
@@ -1201,7 +1204,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1214,11 +1217,11 @@
       <c r="E6" s="13">
         <v>43963</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="58">
         <v>43963</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="45" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="36" t="s">
@@ -1229,7 +1232,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1240,9 +1243,9 @@
       <c r="E7" s="13">
         <v>43963</v>
       </c>
-      <c r="F7" s="50"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="44"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="37" t="s">
         <v>32</v>
       </c>
@@ -1251,7 +1254,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
@@ -1262,12 +1265,12 @@
       <c r="E8" s="13">
         <v>43963</v>
       </c>
-      <c r="F8" s="50"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="44"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1278,12 +1281,12 @@
       <c r="E9" s="13">
         <v>43963</v>
       </c>
-      <c r="F9" s="50"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="45"/>
+      <c r="H9" s="47"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="48" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1296,7 +1299,7 @@
       <c r="E10" s="20">
         <v>43965</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="59">
         <v>43966</v>
       </c>
       <c r="G10" s="30"/>
@@ -1305,7 +1308,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -1316,14 +1319,14 @@
       <c r="E11" s="21">
         <v>43965</v>
       </c>
-      <c r="F11" s="54"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="3"/>
       <c r="H11" s="40" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1332,12 +1335,12 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="54"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="3"/>
       <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
@@ -1348,7 +1351,7 @@
       <c r="E13" s="22">
         <v>43966</v>
       </c>
-      <c r="F13" s="54"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="3"/>
       <c r="H13" s="40" t="s">
         <v>44</v>
@@ -1356,7 +1359,7 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
@@ -1367,7 +1370,7 @@
       <c r="E14" s="38">
         <v>43969</v>
       </c>
-      <c r="F14" s="54"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="3" t="s">
         <v>46</v>
       </c>
@@ -1376,7 +1379,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
@@ -1387,14 +1390,14 @@
       <c r="E15" s="22">
         <v>43966</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="3"/>
       <c r="H15" s="40" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="48" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1405,14 +1408,14 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="55">
+      <c r="F16" s="51">
         <v>43978</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="2" t="s">
         <v>53</v>
       </c>
@@ -1421,12 +1424,12 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="56"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="3"/>
       <c r="H17" s="40"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
@@ -1437,12 +1440,14 @@
       <c r="E18" s="21">
         <v>43977</v>
       </c>
-      <c r="F18" s="56"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="40"/>
+      <c r="H18" s="40" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
@@ -1453,14 +1458,14 @@
       <c r="E19" s="21">
         <v>43969</v>
       </c>
-      <c r="F19" s="56"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="3"/>
       <c r="H19" s="40" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="2" t="s">
         <v>57</v>
       </c>
@@ -1469,12 +1474,12 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="57"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="3"/>
       <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
@@ -1483,12 +1488,12 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="57"/>
+      <c r="F21" s="53"/>
       <c r="G21" s="3"/>
       <c r="H21" s="40"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
@@ -1496,10 +1501,10 @@
         <v>10</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="62">
+      <c r="E22" s="44">
         <v>43977</v>
       </c>
-      <c r="F22" s="58"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="3"/>
       <c r="H22" s="41"/>
     </row>
@@ -1515,14 +1520,14 @@
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="59">
+      <c r="F23" s="43">
         <v>43978</v>
       </c>
       <c r="G23" s="30"/>
       <c r="H23" s="40"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="48" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -1531,45 +1536,45 @@
       <c r="C24" s="9"/>
       <c r="D24" s="6"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="60">
+      <c r="F24" s="61">
         <v>43978</v>
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="39"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="60"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="3"/>
       <c r="H25" s="40"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="60"/>
+      <c r="F26" s="61"/>
       <c r="G26" s="3"/>
       <c r="H26" s="40"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="19"/>
-      <c r="F27" s="61"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="31"/>
       <c r="H27" s="41"/>
     </row>
@@ -1593,12 +1598,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1748,15 +1750,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{837235E1-7EB7-428A-9D4E-2E36B6940D1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC183E54-2C7F-447F-9F20-20916199F4FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1780,10 +1786,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC183E54-2C7F-447F-9F20-20916199F4FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{837235E1-7EB7-428A-9D4E-2E36B6940D1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/Project Schedule.xlsx
+++ b/Documentation/Project Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010371\Documents\GitHub\axi2spi\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djste\Documents\GitHub\axi2spi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F962177-A715-4CEE-B8A7-5801A1478D09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DC642D-48A3-4DD3-9965-9A5BE6A76D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>Project Stage</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>c6fbe4a</t>
+  </si>
+  <si>
+    <t>cb4695b</t>
   </si>
 </sst>
 </file>
@@ -680,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -724,7 +727,6 @@
     <xf numFmtId="16" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -736,60 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -803,6 +751,62 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,25 +1123,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.44140625" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1163,8 +1167,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1179,11 +1183,11 @@
       <c r="E2" s="15">
         <v>43963</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="59">
         <v>43963</v>
       </c>
       <c r="G2" s="30"/>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="49" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="32" t="s">
@@ -1193,8 +1197,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1207,9 +1211,9 @@
       <c r="E3" s="12">
         <v>43961</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="45"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="33" t="s">
         <v>17</v>
       </c>
@@ -1217,8 +1221,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1229,9 +1233,9 @@
       <c r="E4" s="13">
         <v>43963</v>
       </c>
-      <c r="F4" s="55"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="45"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="34" t="s">
         <v>21</v>
       </c>
@@ -1239,8 +1243,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="54"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1251,9 +1255,9 @@
       <c r="E5" s="14">
         <v>43961</v>
       </c>
-      <c r="F5" s="56"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="31"/>
-      <c r="H5" s="46"/>
+      <c r="H5" s="51"/>
       <c r="I5" s="35" t="s">
         <v>24</v>
       </c>
@@ -1261,8 +1265,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1275,11 +1279,11 @@
       <c r="E6" s="13">
         <v>43963</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="62">
         <v>43963</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="49" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="36" t="s">
@@ -1289,8 +1293,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1301,9 +1305,9 @@
       <c r="E7" s="13">
         <v>43963</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="45"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="37" t="s">
         <v>32</v>
       </c>
@@ -1311,8 +1315,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
@@ -1323,12 +1327,12 @@
       <c r="E8" s="13">
         <v>43963</v>
       </c>
-      <c r="F8" s="55"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="45"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="48"/>
+      <c r="H8" s="50"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="53"/>
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1339,12 +1343,12 @@
       <c r="E9" s="13">
         <v>43963</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="45"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
+      <c r="H9" s="50"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1357,16 +1361,16 @@
       <c r="E10" s="20">
         <v>43965</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="63">
         <v>43966</v>
       </c>
       <c r="G10" s="30"/>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -1377,14 +1381,14 @@
       <c r="E11" s="21">
         <v>43965</v>
       </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1392,17 +1396,17 @@
         <v>28</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="67">
+      <c r="E12" s="48">
         <v>43969</v>
       </c>
-      <c r="F12" s="59"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="66" t="s">
+      <c r="H12" s="47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
       <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
@@ -1413,15 +1417,15 @@
       <c r="E13" s="22">
         <v>43966</v>
       </c>
-      <c r="F13" s="59"/>
+      <c r="F13" s="64"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="64" t="s">
+      <c r="H13" s="45" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
       <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
@@ -1429,19 +1433,19 @@
         <v>20</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="39">
+      <c r="E14" s="48">
         <v>43969</v>
       </c>
-      <c r="F14" s="59"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="48"/>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="53"/>
       <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
@@ -1452,14 +1456,14 @@
       <c r="E15" s="22">
         <v>43966</v>
       </c>
-      <c r="F15" s="59"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="65" t="s">
+      <c r="H15" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1469,15 +1473,19 @@
         <v>20</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="50">
+      <c r="E16" s="68">
+        <v>43977</v>
+      </c>
+      <c r="F16" s="55">
         <v>43972</v>
       </c>
       <c r="G16" s="30"/>
-      <c r="H16" s="63"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
+      <c r="H16" s="67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
       <c r="B17" s="2" t="s">
         <v>53</v>
       </c>
@@ -1485,13 +1493,17 @@
         <v>20</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="51"/>
+      <c r="E17" s="48">
+        <v>43977</v>
+      </c>
+      <c r="F17" s="56"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="64"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
+      <c r="H17" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="53"/>
       <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
@@ -1500,12 +1512,12 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="51"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="64"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="53"/>
       <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
@@ -1516,14 +1528,14 @@
       <c r="E19" s="21">
         <v>43969</v>
       </c>
-      <c r="F19" s="51"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="45" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="53"/>
       <c r="B20" s="2" t="s">
         <v>57</v>
       </c>
@@ -1531,17 +1543,17 @@
         <v>28</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="62">
+      <c r="E20" s="43">
         <v>43972</v>
       </c>
-      <c r="F20" s="52"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="47" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
       <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
@@ -1550,12 +1562,12 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="52"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="64"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
       <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
@@ -1564,12 +1576,12 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="18"/>
-      <c r="F22" s="53"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="65"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43" t="s">
+      <c r="H22" s="46"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -1584,10 +1596,10 @@
         <v>43973</v>
       </c>
       <c r="G23" s="30"/>
-      <c r="H23" s="41"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -1596,47 +1608,47 @@
       <c r="C24" s="9"/>
       <c r="D24" s="6"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="60">
+      <c r="F24" s="65">
         <v>43978</v>
       </c>
       <c r="G24" s="30"/>
-      <c r="H24" s="40"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="53"/>
       <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="60"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="41"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
+      <c r="H25" s="40"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="53"/>
       <c r="B26" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="60"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="41"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
+      <c r="H26" s="40"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
       <c r="B27" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="19"/>
-      <c r="F27" s="61"/>
+      <c r="F27" s="66"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="42"/>
+      <c r="H27" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1659,12 +1671,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1814,15 +1823,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{837235E1-7EB7-428A-9D4E-2E36B6940D1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC183E54-2C7F-447F-9F20-20916199F4FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1846,10 +1859,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC183E54-2C7F-447F-9F20-20916199F4FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{837235E1-7EB7-428A-9D4E-2E36B6940D1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>